--- a/hardware/targets/ztex/pcb/ztex_openadc_eagle/cw_assembly_bom.xlsx
+++ b/hardware/targets/ztex/pcb/ztex_openadc_eagle/cw_assembly_bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="171">
   <si>
     <t>Resistors</t>
   </si>
@@ -345,9 +345,6 @@
     <t>WATCH ORIENTATION. Do not be confused by U9 dot.</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
     <t>IC6</t>
   </si>
   <si>
@@ -423,9 +420,6 @@
     <t>JTAG DEBUG</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>TP7, TP8</t>
   </si>
   <si>
@@ -456,19 +450,85 @@
     <t>Other Items to Order</t>
   </si>
   <si>
-    <t>2x jumpers</t>
-  </si>
-  <si>
-    <t>1x connector cable</t>
-  </si>
-  <si>
-    <t>2x 6-pin cable</t>
-  </si>
-  <si>
-    <t>ribbion cable</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>TXB0104PWR</t>
+  </si>
+  <si>
+    <t>TXB0108PWR</t>
+  </si>
+  <si>
+    <t>SN74LVC1T45DBVT</t>
+  </si>
+  <si>
+    <t>AT90USB162A</t>
+  </si>
+  <si>
+    <t>CDCE906PW</t>
+  </si>
+  <si>
+    <t>XTAL1</t>
+  </si>
+  <si>
+    <t>16.000 MHz</t>
+  </si>
+  <si>
+    <t>+/-9V DC-DC</t>
+  </si>
+  <si>
+    <t>945-1004-ND</t>
+  </si>
+  <si>
+    <t>USB-A</t>
+  </si>
+  <si>
+    <t>2x10/ 90</t>
+  </si>
+  <si>
+    <t>HM980-ND</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>6-pin IDC Ribbon Cable</t>
+  </si>
+  <si>
+    <t>20-pin IDC Ribbon Cable</t>
+  </si>
+  <si>
+    <t>SMA Cable?</t>
+  </si>
+  <si>
+    <t>2x pin jumpers</t>
+  </si>
+  <si>
+    <t>A33184-ND</t>
+  </si>
+  <si>
+    <t>609-2846-ND</t>
+  </si>
+  <si>
+    <t>609-3078-ND</t>
+  </si>
+  <si>
+    <t>CON3</t>
+  </si>
+  <si>
+    <t>5001K-ND</t>
+  </si>
+  <si>
+    <t>A3CCB-2006G-ND</t>
+  </si>
+  <si>
+    <t>S9337-ND</t>
+  </si>
+  <si>
+    <t>use 2x of 1195-1670-ND + ribbon cable</t>
+  </si>
+  <si>
+    <t>A106446-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A26494-ND </t>
   </si>
 </sst>
 </file>
@@ -820,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,22 +893,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -944,7 +1005,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -1436,7 +1497,9 @@
       <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1446,7 +1509,9 @@
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -1461,7 +1526,9 @@
       <c r="A39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="F39" s="2"/>
@@ -1470,7 +1537,9 @@
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
@@ -1482,7 +1551,9 @@
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1493,9 +1564,11 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1506,10 +1579,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1521,10 +1594,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1536,22 +1609,28 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="H45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1559,21 +1638,21 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1583,58 +1662,66 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="H50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="H51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1643,27 +1730,29 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" t="s">
         <v>133</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -1674,7 +1763,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1683,21 +1772,23 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1706,15 +1797,17 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -1726,23 +1819,23 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1750,15 +1843,15 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,7 +1864,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1781,17 +1874,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1801,33 +1896,39 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
